--- a/gym.xlsx
+++ b/gym.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdavitiani\Documents\GitHub\fitness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdavitiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,8 @@
           <t>$352 - 45 x 4
 $322 - 25 x 8
 $  86 - 10 x 4
-$  14 - 5   x 2
-$   6 - 2.5 x 2</t>
+$  29 - 5   x 2
+$  15 - 2.5 x 2</t>
         </r>
       </text>
     </comment>
@@ -507,7 +507,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="B28" s="8">
         <f>SUM(B2:B26)</f>
-        <v>3032</v>
+        <v>3056</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>

--- a/gym.xlsx
+++ b/gym.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18210" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23700" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,8 @@
           <t>$352 - 45 x 4
 $322 - 25 x 8
 $  86 - 10 x 4
-$  29 - 5   x 2
-$  15 - 2.5 x 2</t>
+$  46 - 5   x 4
+$  28 - 2.5 x 4</t>
         </r>
       </text>
     </comment>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Price</t>
   </si>
@@ -88,18 +88,12 @@
     <t>dumbbell stand</t>
   </si>
   <si>
-    <t>wrist straps</t>
-  </si>
-  <si>
     <t>lifting belt</t>
   </si>
   <si>
     <t>dumbbells - adjustable</t>
   </si>
   <si>
-    <t>chalk</t>
-  </si>
-  <si>
     <t>clock</t>
   </si>
   <si>
@@ -131,6 +125,24 @@
   </si>
   <si>
     <t>floor mats</t>
+  </si>
+  <si>
+    <t>dip belt</t>
+  </si>
+  <si>
+    <t>chalk (x2)</t>
+  </si>
+  <si>
+    <t>dumbbells - 90lb</t>
+  </si>
+  <si>
+    <t>.180.</t>
+  </si>
+  <si>
+    <t>lifting straps</t>
+  </si>
+  <si>
+    <t>wrist wraps</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -219,9 +231,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +557,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>107</v>
@@ -551,7 +568,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <v>55</v>
@@ -562,7 +579,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6">
         <v>81</v>
@@ -598,7 +615,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
         <v>162</v>
@@ -609,7 +626,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
         <v>98</v>
@@ -620,7 +637,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6">
         <v>11</v>
@@ -638,10 +655,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -649,7 +666,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>345</v>
@@ -659,17 +676,17 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6">
-        <v>322</v>
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -677,39 +694,39 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" s="6">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>119</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6">
-        <v>156</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -720,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -728,21 +745,32 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -750,62 +778,66 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6">
-        <v>65</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6">
+        <v>40</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8">
-        <f>SUM(B2:B26)</f>
-        <v>3056</v>
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6">
+        <v>31</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6">
+        <v>65</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7">
+        <f>SUM(B2:B29)</f>
+        <v>3132</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -894,6 +926,27 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/gym.xlsx
+++ b/gym.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23700" windowHeight="14085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>Davitiani, George</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Price</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>wrist wraps</t>
+  </si>
+  <si>
+    <t>foam roller</t>
+  </si>
+  <si>
+    <t>multi-grip camber bar</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,78 +632,78 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6">
-        <v>11</v>
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>98</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>824</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>345</v>
+        <v>824</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>345</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6">
-        <v>322</v>
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -705,39 +711,39 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" s="6">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>119</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6">
-        <v>156</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -745,10 +751,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B22" s="6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -756,10 +762,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -767,10 +773,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -778,35 +784,35 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="6">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -814,44 +820,52 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B29" s="6">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6">
+        <v>65</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7">
-        <f>SUM(B2:B29)</f>
-        <v>3132</v>
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6">
+        <v>20</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7">
+        <f>SUM(B2:B31)</f>
+        <v>3346</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -947,6 +961,20 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/gym.xlsx
+++ b/gym.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>Davitiani, George</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Price</t>
   </si>
@@ -112,9 +112,6 @@
     <t>barbell hangers</t>
   </si>
   <si>
-    <t>power bar</t>
-  </si>
-  <si>
     <t>EZ curl bar</t>
   </si>
   <si>
@@ -149,6 +146,12 @@
   </si>
   <si>
     <t>multi-grip camber bar</t>
+  </si>
+  <si>
+    <t>barbell pad</t>
+  </si>
+  <si>
+    <t>barbell</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +566,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>107</v>
@@ -574,7 +577,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>55</v>
@@ -621,7 +624,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>162</v>
@@ -632,7 +635,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5">
         <v>194</v>
@@ -643,7 +646,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>98</v>
@@ -664,57 +667,57 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6">
+        <v>13</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>824</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5">
-        <v>345</v>
+        <v>824</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>345</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6">
-        <v>322</v>
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -722,39 +725,39 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" s="6">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6">
+        <v>119</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6">
-        <v>156</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" s="6">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -762,10 +765,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -773,10 +776,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B24" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -784,10 +787,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -795,46 +798,46 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="6">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B30" s="6">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -842,44 +845,52 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B31" s="6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="6">
+        <v>65</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="7">
-        <f>SUM(B2:B31)</f>
-        <v>3346</v>
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7">
+        <f>SUM(B2:B33)</f>
+        <v>3419</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -975,6 +986,20 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/gym.xlsx
+++ b/gym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdavitiani\Documents\GitHub\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE70CC6-9291-4158-81CC-EF29CADBD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D5950F-7C9A-4A03-8023-58BF432B97AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="1515" windowWidth="29385" windowHeight="17745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19815" yWindow="300" windowWidth="30480" windowHeight="17190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -110,9 +110,6 @@
     <t>EZ curl bar</t>
   </si>
   <si>
-    <t>barbell clamps</t>
-  </si>
-  <si>
     <t>barbell pad</t>
   </si>
   <si>
@@ -171,6 +168,12 @@
   </si>
   <si>
     <t>safety arms</t>
+  </si>
+  <si>
+    <t>barbell collars/clips</t>
+  </si>
+  <si>
+    <t>loadable DB handles</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +614,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
         <v>107</v>
@@ -713,10 +716,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -724,7 +727,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>824</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <v>345</v>
@@ -770,7 +773,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4">
         <v>190</v>
@@ -781,7 +784,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5">
         <v>215</v>
@@ -792,7 +795,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
         <v>180</v>
@@ -803,7 +806,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5">
         <v>215</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
         <v>322</v>
@@ -825,7 +828,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3">
         <v>119</v>
@@ -836,7 +839,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
         <v>150</v>
@@ -846,29 +849,29 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>92</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3">
-        <v>156</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="3">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -876,10 +879,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -887,10 +890,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -898,10 +901,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -909,10 +912,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -920,35 +923,35 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -956,37 +959,41 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3">
+        <v>65</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="6">
-        <f>SUM(B2:B37)</f>
-        <v>4672</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="6">
+        <f>SUM(B2:B38)</f>
+        <v>4778</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1089,6 +1096,13 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/gym.xlsx
+++ b/gym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdavitiani\Documents\GitHub\fitness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdavitiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D5950F-7C9A-4A03-8023-58BF432B97AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7EE548-B948-404A-ADE5-07BC0A2F9FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19815" yWindow="300" windowWidth="30480" windowHeight="17190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1095" windowWidth="15285" windowHeight="17370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -110,9 +110,6 @@
     <t>EZ curl bar</t>
   </si>
   <si>
-    <t>barbell pad</t>
-  </si>
-  <si>
     <t>weights - iron</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>weight vest</t>
   </si>
   <si>
-    <t>lifting belt</t>
-  </si>
-  <si>
     <t>dip belt</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>lifting straps</t>
   </si>
   <si>
-    <t>chalk (x2)</t>
-  </si>
-  <si>
     <t>clock</t>
   </si>
   <si>
@@ -174,6 +165,12 @@
   </si>
   <si>
     <t>loadable DB handles</t>
+  </si>
+  <si>
+    <t>farmer's walk handles</t>
+  </si>
+  <si>
+    <t>lifting belts</t>
   </si>
 </sst>
 </file>
@@ -282,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -614,10 +611,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -639,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -657,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -675,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -686,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -697,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -708,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -716,7 +713,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>25</v>
@@ -727,10 +724,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -745,10 +742,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -756,7 +753,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
         <v>345</v>
@@ -773,7 +770,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>190</v>
@@ -784,7 +781,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5">
         <v>215</v>
@@ -795,7 +792,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5">
         <v>180</v>
@@ -806,7 +803,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <v>215</v>
@@ -817,10 +814,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -828,10 +825,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -839,7 +836,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3">
         <v>150</v>
@@ -850,10 +847,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -868,10 +865,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -879,10 +876,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -890,10 +887,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -901,10 +898,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -912,7 +909,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3">
         <v>10</v>
@@ -922,58 +919,55 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="3">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3">
-        <v>31</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="3">
-        <v>65</v>
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="6">
+        <f>SUM(B2:B36)</f>
+        <v>4720</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -981,19 +975,14 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="6">
-        <f>SUM(B2:B38)</f>
-        <v>4778</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1089,20 +1078,6 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
